--- a/homework/学生成绩.xlsx
+++ b/homework/学生成绩.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>组别</t>
   </si>
@@ -143,12 +143,47 @@
   <si>
     <t>姜瑞</t>
   </si>
+  <si>
+    <t>是否提交作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paint
+mult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note
+mult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgbox
+or file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +236,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="5">
@@ -328,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,23 +393,35 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -673,224 +728,424 @@
     <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="15" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:11" ht="14.25" thickBot="1">
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="26.25" thickBot="1">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A2" s="4" t="s">
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C4" s="6">
         <v>15966866475</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1">
-      <c r="A3" s="8" t="s">
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C5" s="6">
         <v>13165070603</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5" t="s">
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C6" s="6">
         <v>15908966120</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5" t="s">
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C7" s="6">
         <v>15240232918</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="5" t="s">
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C8" s="6">
         <v>15588636938</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="5" t="s">
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C9" s="6">
         <v>15262408529</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1">
-      <c r="A8" s="8" t="s">
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C10" s="6">
         <v>15376792385</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="5" t="s">
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C11" s="6">
         <v>15907131521</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5" t="s">
+    <row r="12" spans="1:11" ht="15" thickBot="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C12" s="6">
         <v>15726203017</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5" t="s">
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C13" s="6">
         <v>13682103741</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="5" t="s">
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C14" s="6">
         <v>15969699360</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5" t="s">
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C15" s="6">
         <v>15762285221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="5" t="s">
+    <row r="16" spans="1:11" ht="15" thickBot="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C16" s="6">
         <v>15205421639</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1">
-      <c r="A15" s="8" t="s">
+      <c r="D16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1">
+      <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C17" s="6">
         <v>18303099022</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="5" t="s">
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" thickBot="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C18" s="6">
         <v>18903227251</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="5" t="s">
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C19" s="6">
         <v>15275701257</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="5" t="s">
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C20" s="6">
         <v>15006181006</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1">
-      <c r="A19" s="11" t="s">
+      <c r="D20" s="16">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1">
+      <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C21" s="6">
         <v>13356891923</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="5" t="s">
+    <row r="22" spans="1:11" ht="15" thickBot="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C22" s="6">
         <v>18863993014</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="5" t="s">
+      <c r="D22" s="16">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" thickBot="1">
+      <c r="A23" s="11"/>
+      <c r="B23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C23" s="6">
         <v>15062195497</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="5" t="s">
+      <c r="D23" s="16">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C24" s="6">
         <v>15275380689</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="D25" s="15">
+        <f>SUM(D4:D24)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/homework/学生成绩.xlsx
+++ b/homework/学生成绩.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>组别</t>
   </si>
@@ -176,6 +176,10 @@
   </si>
   <si>
     <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,6 +397,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -410,18 +426,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,7 +724,7 @@
   <dimension ref="A2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -728,7 +732,7 @@
     <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12" style="9" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -762,25 +766,25 @@
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -794,10 +798,10 @@
       <c r="C4" s="6">
         <v>15966866475</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -806,7 +810,7 @@
       <c r="C5" s="6">
         <v>13165070603</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="10">
         <v>1</v>
       </c>
       <c r="K5">
@@ -814,14 +818,14 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1">
-      <c r="A6" s="8"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6">
         <v>15908966120</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="10">
         <v>1</v>
       </c>
       <c r="F6">
@@ -841,44 +845,68 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6">
         <v>15240232918</v>
       </c>
-      <c r="D7" s="16">
-        <v>1</v>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
       </c>
       <c r="K7">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1">
-      <c r="A8" s="8"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="6">
         <v>15588636938</v>
       </c>
-      <c r="D8" s="16">
-        <v>1</v>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
       </c>
       <c r="K8">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1">
-      <c r="A9" s="9"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="6">
         <v>15262408529</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="10">
         <v>1</v>
       </c>
       <c r="F9">
@@ -898,7 +926,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -907,15 +935,27 @@
       <c r="C10" s="6">
         <v>15376792385</v>
       </c>
-      <c r="D10" s="16">
-        <v>1</v>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>30</v>
       </c>
       <c r="K10">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1">
-      <c r="A11" s="8"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
@@ -924,29 +964,41 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1">
-      <c r="A12" s="8"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="6">
         <v>15726203017</v>
       </c>
-      <c r="D12" s="16">
-        <v>1</v>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>30</v>
       </c>
       <c r="K12">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1">
-      <c r="A13" s="8"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="6">
         <v>13682103741</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="10">
         <v>1</v>
       </c>
       <c r="F13">
@@ -969,14 +1021,14 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1">
-      <c r="A14" s="8"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="6">
         <v>15969699360</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="10">
         <v>1</v>
       </c>
       <c r="K14">
@@ -984,7 +1036,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
-      <c r="A15" s="8"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
@@ -993,14 +1045,14 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1">
-      <c r="A16" s="9"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="6">
         <v>15205421639</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="9">
         <v>1</v>
       </c>
       <c r="F16">
@@ -1023,7 +1075,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1032,7 +1084,7 @@
       <c r="C17" s="6">
         <v>18303099022</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="10">
         <v>1</v>
       </c>
       <c r="K17">
@@ -1040,14 +1092,14 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1">
-      <c r="A18" s="8"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="6">
         <v>18903227251</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="10">
         <v>1</v>
       </c>
       <c r="K18">
@@ -1055,14 +1107,14 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1">
-      <c r="A19" s="8"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="6">
         <v>15275701257</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="10">
         <v>1</v>
       </c>
       <c r="K19">
@@ -1070,14 +1122,14 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1">
-      <c r="A20" s="9"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="6">
         <v>15006181006</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="10">
         <v>1</v>
       </c>
       <c r="K20">
@@ -1085,7 +1137,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1096,29 +1148,41 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1">
-      <c r="A22" s="11"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="6">
         <v>18863993014</v>
       </c>
-      <c r="D22" s="16">
-        <v>1</v>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>30</v>
       </c>
       <c r="K22">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1">
-      <c r="A23" s="11"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="6">
         <v>15062195497</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="10">
         <v>1</v>
       </c>
       <c r="K23">
@@ -1126,7 +1190,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1">
-      <c r="A24" s="12"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
@@ -1135,7 +1199,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="D25" s="15">
+      <c r="D25" s="9">
         <f>SUM(D4:D24)</f>
         <v>16</v>
       </c>

--- a/homework/学生成绩.xlsx
+++ b/homework/学生成绩.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>组别</t>
   </si>
@@ -166,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>msgbox
 or file</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,7 +175,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
+    <t>总分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K25"/>
+  <dimension ref="A2:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -736,12 +732,12 @@
     <col min="10" max="10" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="14.25" thickBot="1">
+    <row r="2" spans="1:13" ht="14.25" thickBot="1">
       <c r="F2">
         <v>30</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -750,13 +746,13 @@
         <v>30</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="26.25" thickBot="1">
+    <row r="3" spans="1:13" ht="26.25" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +772,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>30</v>
@@ -785,10 +781,13 @@
         <v>31</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="19.5" thickBot="1">
+    <row r="4" spans="1:13" ht="19.5" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -800,7 +799,7 @@
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1">
+    <row r="5" spans="1:13" ht="15" thickBot="1">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -813,11 +812,27 @@
       <c r="D5" s="10">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="K5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1">
+      <c r="M5">
+        <f>SUM(F5:K5)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1">
       <c r="A6" s="12"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
@@ -832,19 +847,23 @@
         <v>30</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
-        <v>34</v>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="K6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1">
+      <c r="M6">
+        <f t="shared" ref="M6:M24" si="0">SUM(F6:K6)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="12"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
@@ -859,19 +878,23 @@
         <v>30</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
-        <v>37</v>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="K7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1">
       <c r="A8" s="12"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
@@ -886,7 +909,7 @@
         <v>30</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>9</v>
@@ -897,8 +920,12 @@
       <c r="K8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -913,19 +940,23 @@
         <v>30</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
-      <c r="I9" t="s">
-        <v>34</v>
+      <c r="I9">
+        <v>0</v>
       </c>
       <c r="K9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1">
       <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
@@ -942,7 +973,7 @@
         <v>30</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -953,8 +984,12 @@
       <c r="K10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1">
       <c r="A11" s="12"/>
       <c r="B11" s="5" t="s">
         <v>13</v>
@@ -963,7 +998,7 @@
         <v>15907131521</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1">
+    <row r="12" spans="1:13" ht="15" thickBot="1">
       <c r="A12" s="12"/>
       <c r="B12" s="5" t="s">
         <v>14</v>
@@ -978,7 +1013,7 @@
         <v>30</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -989,8 +1024,12 @@
       <c r="K12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1">
       <c r="A13" s="12"/>
       <c r="B13" s="5" t="s">
         <v>15</v>
@@ -1005,7 +1044,7 @@
         <v>30</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -1014,13 +1053,17 @@
         <v>30</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1">
       <c r="A14" s="12"/>
       <c r="B14" s="5" t="s">
         <v>16</v>
@@ -1034,8 +1077,12 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="12"/>
       <c r="B15" s="5" t="s">
         <v>17</v>
@@ -1044,7 +1091,7 @@
         <v>15762285221</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="13"/>
       <c r="B16" s="5" t="s">
         <v>18</v>
@@ -1059,7 +1106,7 @@
         <v>30</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -1068,13 +1115,17 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1">
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -1087,11 +1138,30 @@
       <c r="D17" s="10">
         <v>1</v>
       </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
       <c r="K17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" thickBot="1">
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1">
       <c r="A18" s="12"/>
       <c r="B18" s="5" t="s">
         <v>21</v>
@@ -1102,11 +1172,27 @@
       <c r="D18" s="10">
         <v>1</v>
       </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
+      </c>
       <c r="K18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1">
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1">
       <c r="A19" s="12"/>
       <c r="B19" s="5" t="s">
         <v>22</v>
@@ -1117,11 +1203,27 @@
       <c r="D19" s="10">
         <v>1</v>
       </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>30</v>
+      </c>
       <c r="K19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1">
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="13"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
@@ -1135,8 +1237,12 @@
       <c r="K20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1">
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1">
       <c r="A21" s="14" t="s">
         <v>24</v>
       </c>
@@ -1147,7 +1253,7 @@
         <v>13356891923</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1">
+    <row r="22" spans="1:13" ht="15" thickBot="1">
       <c r="A22" s="15"/>
       <c r="B22" s="5" t="s">
         <v>26</v>
@@ -1162,7 +1268,7 @@
         <v>30</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -1173,8 +1279,12 @@
       <c r="K22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1">
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1">
       <c r="A23" s="15"/>
       <c r="B23" s="5" t="s">
         <v>27</v>
@@ -1188,8 +1298,12 @@
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1">
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1">
       <c r="A24" s="16"/>
       <c r="B24" s="5" t="s">
         <v>28</v>
@@ -1198,7 +1312,7 @@
         <v>15275380689</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:13">
       <c r="D25" s="9">
         <f>SUM(D4:D24)</f>
         <v>16</v>

--- a/homework/学生成绩.xlsx
+++ b/homework/学生成绩.xlsx
@@ -720,7 +720,7 @@
   <dimension ref="A2:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -859,7 +859,7 @@
         <v>7</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M24" si="0">SUM(F6:K6)</f>
+        <f t="shared" ref="M6:M23" si="0">SUM(F6:K6)</f>
         <v>62</v>
       </c>
     </row>
@@ -1234,12 +1234,24 @@
       <c r="D20" s="10">
         <v>1</v>
       </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>28</v>
+      </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1">
@@ -1295,12 +1307,24 @@
       <c r="D23" s="10">
         <v>1</v>
       </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>30</v>
+      </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1">

--- a/homework/学生成绩.xlsx
+++ b/homework/学生成绩.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>组别</t>
   </si>
@@ -176,6 +176,33 @@
   </si>
   <si>
     <t>总分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未交作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本题
+创新题
+附加题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加题未做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件对话框
+一个便签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个便签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,6 +449,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M25"/>
+  <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -730,11 +760,12 @@
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="9" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="14.25" thickBot="1">
+    <row r="2" spans="1:14" ht="14.25" thickBot="1">
       <c r="F2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -749,10 +780,10 @@
         <v>5</v>
       </c>
       <c r="K2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="26.25" thickBot="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="26.25" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,8 +817,11 @@
       <c r="M3" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="19.5" thickBot="1">
+      <c r="N3" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -798,8 +832,11 @@
         <v>15966866475</v>
       </c>
       <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1">
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27.75" thickBot="1">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -813,26 +850,29 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <f>SUM(F5:K5)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1">
+        <v>75</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1">
       <c r="A6" s="12"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
@@ -844,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -853,17 +893,20 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M6">
         <f t="shared" ref="M6:M23" si="0">SUM(F6:K6)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="12"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
@@ -875,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -884,17 +927,17 @@
         <v>10</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="12"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
@@ -906,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>9</v>
@@ -918,14 +961,14 @@
         <v>30</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -937,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -946,17 +989,20 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1">
+        <v>71</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
@@ -970,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -982,14 +1028,17 @@
         <v>30</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1">
+        <v>94</v>
+      </c>
+      <c r="N10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="12"/>
       <c r="B11" s="5" t="s">
         <v>13</v>
@@ -997,8 +1046,11 @@
       <c r="C11" s="6">
         <v>15907131521</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1">
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="12"/>
       <c r="B12" s="5" t="s">
         <v>14</v>
@@ -1010,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>15</v>
@@ -1022,14 +1074,14 @@
         <v>30</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="41.25" thickBot="1">
       <c r="A13" s="12"/>
       <c r="B13" s="5" t="s">
         <v>15</v>
@@ -1041,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>15</v>
@@ -1056,14 +1108,17 @@
         <v>5</v>
       </c>
       <c r="K13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1">
+        <v>99</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="12"/>
       <c r="B14" s="5" t="s">
         <v>16</v>
@@ -1074,15 +1129,27 @@
       <c r="D14" s="10">
         <v>1</v>
       </c>
+      <c r="F14">
+        <v>35</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="12"/>
       <c r="B15" s="5" t="s">
         <v>17</v>
@@ -1090,8 +1157,11 @@
       <c r="C15" s="6">
         <v>15762285221</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1">
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="13"/>
       <c r="B16" s="5" t="s">
         <v>18</v>
@@ -1103,10 +1173,10 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -1118,14 +1188,14 @@
         <v>2</v>
       </c>
       <c r="K16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
+    <row r="17" spans="1:14" ht="15" thickBot="1">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -1139,29 +1209,29 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J17">
         <v>5</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1">
       <c r="A18" s="12"/>
       <c r="B18" s="5" t="s">
         <v>21</v>
@@ -1173,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>15</v>
@@ -1185,14 +1255,14 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" thickBot="1">
       <c r="A19" s="12"/>
       <c r="B19" s="5" t="s">
         <v>22</v>
@@ -1204,26 +1274,26 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>15</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <v>30</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1">
       <c r="A20" s="13"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
@@ -1235,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>15</v>
@@ -1247,14 +1317,14 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" thickBot="1">
       <c r="A21" s="14" t="s">
         <v>24</v>
       </c>
@@ -1264,8 +1334,11 @@
       <c r="C21" s="6">
         <v>13356891923</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1">
+      <c r="N21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" thickBot="1">
       <c r="A22" s="15"/>
       <c r="B22" s="5" t="s">
         <v>26</v>
@@ -1277,26 +1350,26 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22">
         <v>30</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" thickBot="1">
       <c r="A23" s="15"/>
       <c r="B23" s="5" t="s">
         <v>27</v>
@@ -1308,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>7</v>
@@ -1324,10 +1397,10 @@
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1">
       <c r="A24" s="16"/>
       <c r="B24" s="5" t="s">
         <v>28</v>
@@ -1335,8 +1408,11 @@
       <c r="C24" s="6">
         <v>15275380689</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="D25" s="9">
         <f>SUM(D4:D24)</f>
         <v>16</v>

--- a/homework/学生成绩.xlsx
+++ b/homework/学生成绩.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>组别</t>
   </si>
@@ -132,9 +132,6 @@
     <t>硬件组</t>
   </si>
   <si>
-    <t>姚福鑫</t>
-  </si>
-  <si>
     <t>马圣博</t>
   </si>
   <si>
@@ -203,6 +200,18 @@
   </si>
   <si>
     <t>一个便签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已补交作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已补交作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚福鑫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,6 +441,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -449,9 +461,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,15 +759,16 @@
   <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="12" style="9" customWidth="1"/>
+    <col min="5" max="5" width="4.625" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="14" max="14" width="11.375" customWidth="1"/>
   </cols>
@@ -794,31 +804,31 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="M3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1">
@@ -833,11 +843,11 @@
       </c>
       <c r="D4" s="10"/>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="27.75" thickBot="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -859,21 +869,24 @@
         <v>13</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="M5">
         <f>SUM(F5:K5)</f>
-        <v>75</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>41</v>
+        <v>88</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -907,7 +920,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -927,18 +940,21 @@
         <v>10</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -969,7 +985,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
@@ -989,21 +1005,24 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
       <c r="K9">
         <v>3</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1035,11 +1054,11 @@
         <v>94</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1047,11 +1066,11 @@
         <v>15907131521</v>
       </c>
       <c r="N11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1082,7 +1101,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="41.25" thickBot="1">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1114,12 +1133,12 @@
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="N13" s="17" t="s">
-        <v>39</v>
+      <c r="N13" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1150,19 +1169,38 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="6">
         <v>15762285221</v>
       </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>35</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
       <c r="N15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
@@ -1196,7 +1234,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1218,21 +1256,21 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
@@ -1263,7 +1301,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1294,7 +1332,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1">
-      <c r="A20" s="13"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
@@ -1320,28 +1358,44 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <f t="shared" si="0"/>
+        <f>SUM(F20:K20)</f>
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" thickBot="1">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C21" s="6">
         <v>13356891923</v>
       </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>35</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="N21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="6">
         <v>18863993014</v>
@@ -1370,9 +1424,9 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="6">
         <v>15062195497</v>
@@ -1401,21 +1455,21 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1">
-      <c r="A24" s="16"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="6">
         <v>15275380689</v>
       </c>
       <c r="N24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="D25" s="9">
         <f>SUM(D4:D24)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/homework/学生成绩.xlsx
+++ b/homework/学生成绩.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>组别</t>
   </si>
@@ -212,6 +212,10 @@
   </si>
   <si>
     <t>姚福鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已补交作业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,7 +763,7 @@
   <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -841,9 +845,11 @@
       <c r="C4" s="6">
         <v>15966866475</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="27.75" thickBot="1">
@@ -1469,7 +1475,7 @@
     <row r="25" spans="1:14">
       <c r="D25" s="9">
         <f>SUM(D4:D24)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/homework/学生成绩.xlsx
+++ b/homework/学生成绩.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>组别</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>海洋遥感组</t>
-  </si>
-  <si>
-    <t>王璇</t>
   </si>
   <si>
     <r>
@@ -49,21 +46,6 @@
     </r>
   </si>
   <si>
-    <t>曲德源</t>
-  </si>
-  <si>
-    <t>李刚</t>
-  </si>
-  <si>
-    <t>何珏</t>
-  </si>
-  <si>
-    <t>刘颖洁</t>
-  </si>
-  <si>
-    <t>纪伟</t>
-  </si>
-  <si>
     <r>
       <t>VR-GIS</t>
     </r>
@@ -80,27 +62,6 @@
     </r>
   </si>
   <si>
-    <t>霍鹏</t>
-  </si>
-  <si>
-    <t>尹全超</t>
-  </si>
-  <si>
-    <t>高佳佳</t>
-  </si>
-  <si>
-    <t>鲍文博</t>
-  </si>
-  <si>
-    <t>滕燕</t>
-  </si>
-  <si>
-    <t>王红松</t>
-  </si>
-  <si>
-    <t>崔立群</t>
-  </si>
-  <si>
     <r>
       <t>Mobile-GIS</t>
     </r>
@@ -117,28 +78,7 @@
     </r>
   </si>
   <si>
-    <t>穆亚克</t>
-  </si>
-  <si>
-    <t>高曼</t>
-  </si>
-  <si>
-    <t>孟学文</t>
-  </si>
-  <si>
-    <t>郝东升</t>
-  </si>
-  <si>
     <t>硬件组</t>
-  </si>
-  <si>
-    <t>马圣博</t>
-  </si>
-  <si>
-    <t>封泉州</t>
-  </si>
-  <si>
-    <t>姜瑞</t>
   </si>
   <si>
     <t>是否提交作业</t>
@@ -216,6 +156,90 @@
   </si>
   <si>
     <t>已补交作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未报到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王璇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲德源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何珏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘颖洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹全超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高佳佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲍文博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滕燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王红松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔立群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆亚克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟学文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郝东升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马圣博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封泉州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜瑞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +787,7 @@
   <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="B20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -808,31 +832,31 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1">
@@ -840,7 +864,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6">
         <v>15966866475</v>
@@ -848,16 +872,32 @@
       <c r="D4" s="10">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <f>SUM(F4:K4)</f>
+        <v>87</v>
+      </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="27.75" thickBot="1">
       <c r="A5" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6">
         <v>13165070603</v>
@@ -888,13 +928,13 @@
         <v>88</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
       <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C6" s="6">
         <v>15908966120</v>
@@ -928,7 +968,7 @@
     <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6">
         <v>15240232918</v>
@@ -962,7 +1002,7 @@
     <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6">
         <v>15588636938</v>
@@ -993,7 +1033,7 @@
     <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14"/>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C9" s="6">
         <v>15262408529</v>
@@ -1024,15 +1064,15 @@
         <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C10" s="6">
         <v>15376792385</v>
@@ -1060,25 +1100,25 @@
         <v>94</v>
       </c>
       <c r="N10" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="13"/>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C11" s="6">
         <v>15907131521</v>
       </c>
       <c r="N11" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="13"/>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C12" s="6">
         <v>15726203017</v>
@@ -1109,7 +1149,7 @@
     <row r="13" spans="1:14" ht="41.25" thickBot="1">
       <c r="A13" s="13"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C13" s="6">
         <v>13682103741</v>
@@ -1140,13 +1180,13 @@
         <v>99</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="13"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6">
         <v>15969699360</v>
@@ -1177,7 +1217,7 @@
     <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="13"/>
       <c r="B15" s="5" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C15" s="6">
         <v>15762285221</v>
@@ -1202,13 +1242,13 @@
         <v>78</v>
       </c>
       <c r="N15" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C16" s="6">
         <v>15205421639</v>
@@ -1241,10 +1281,10 @@
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1">
       <c r="A17" s="12" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C17" s="6">
         <v>18303099022</v>
@@ -1278,7 +1318,7 @@
     <row r="18" spans="1:14" ht="15" thickBot="1">
       <c r="A18" s="13"/>
       <c r="B18" s="5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C18" s="6">
         <v>18903227251</v>
@@ -1309,7 +1349,7 @@
     <row r="19" spans="1:14" ht="15" thickBot="1">
       <c r="A19" s="13"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C19" s="6">
         <v>15275701257</v>
@@ -1340,7 +1380,7 @@
     <row r="20" spans="1:14" ht="15" thickBot="1">
       <c r="A20" s="14"/>
       <c r="B20" s="5" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C20" s="6">
         <v>15006181006</v>
@@ -1370,10 +1410,10 @@
     </row>
     <row r="21" spans="1:14" ht="15" thickBot="1">
       <c r="A21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C21" s="6">
         <v>13356891923</v>
@@ -1395,13 +1435,13 @@
         <v>50</v>
       </c>
       <c r="N21" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1">
       <c r="A22" s="16"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C22" s="6">
         <v>18863993014</v>
@@ -1432,7 +1472,7 @@
     <row r="23" spans="1:14" ht="15" thickBot="1">
       <c r="A23" s="16"/>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C23" s="6">
         <v>15062195497</v>
@@ -1463,13 +1503,13 @@
     <row r="24" spans="1:14" ht="15" thickBot="1">
       <c r="A24" s="17"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C24" s="6">
         <v>15275380689</v>
       </c>
       <c r="N24" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:14">

--- a/homework/学生成绩.xlsx
+++ b/homework/学生成绩.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未交作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基本题
 创新题
 附加题</t>
@@ -240,6 +236,10 @@
   </si>
   <si>
     <t>姜瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已补交作业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,7 +787,7 @@
   <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="A20:XFD20"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -864,7 +864,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6">
         <v>15966866475</v>
@@ -889,7 +889,7 @@
         <v>87</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="27.75" thickBot="1">
@@ -897,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6">
         <v>13165070603</v>
@@ -928,13 +928,13 @@
         <v>88</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
       <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="6">
         <v>15908966120</v>
@@ -961,14 +961,14 @@
         <v>3</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M23" si="0">SUM(F6:K6)</f>
+        <f t="shared" ref="M6:M24" si="0">SUM(F6:K6)</f>
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="6">
         <v>15240232918</v>
@@ -1002,7 +1002,7 @@
     <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6">
         <v>15588636938</v>
@@ -1033,7 +1033,7 @@
     <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14"/>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="6">
         <v>15262408529</v>
@@ -1064,7 +1064,7 @@
         <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1">
@@ -1072,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="6">
         <v>15376792385</v>
@@ -1100,25 +1100,25 @@
         <v>94</v>
       </c>
       <c r="N10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="13"/>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6">
         <v>15907131521</v>
       </c>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="13"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="6">
         <v>15726203017</v>
@@ -1149,7 +1149,7 @@
     <row r="13" spans="1:14" ht="41.25" thickBot="1">
       <c r="A13" s="13"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="6">
         <v>13682103741</v>
@@ -1180,13 +1180,13 @@
         <v>99</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="13"/>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6">
         <v>15969699360</v>
@@ -1217,7 +1217,7 @@
     <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="13"/>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="6">
         <v>15762285221</v>
@@ -1242,13 +1242,13 @@
         <v>78</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="6">
         <v>15205421639</v>
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="6">
         <v>18303099022</v>
@@ -1318,7 +1318,7 @@
     <row r="18" spans="1:14" ht="15" thickBot="1">
       <c r="A18" s="13"/>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6">
         <v>18903227251</v>
@@ -1349,7 +1349,7 @@
     <row r="19" spans="1:14" ht="15" thickBot="1">
       <c r="A19" s="13"/>
       <c r="B19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6">
         <v>15275701257</v>
@@ -1380,7 +1380,7 @@
     <row r="20" spans="1:14" ht="15" thickBot="1">
       <c r="A20" s="14"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="6">
         <v>15006181006</v>
@@ -1413,7 +1413,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="6">
         <v>13356891923</v>
@@ -1435,13 +1435,13 @@
         <v>50</v>
       </c>
       <c r="N21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1">
       <c r="A22" s="16"/>
       <c r="B22" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="6">
         <v>18863993014</v>
@@ -1472,7 +1472,7 @@
     <row r="23" spans="1:14" ht="15" thickBot="1">
       <c r="A23" s="16"/>
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="6">
         <v>15062195497</v>
@@ -1503,13 +1503,29 @@
     <row r="24" spans="1:14" ht="15" thickBot="1">
       <c r="A24" s="17"/>
       <c r="B24" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="6">
         <v>15275380689</v>
       </c>
+      <c r="F24">
+        <v>35</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>30</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="N24" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:14">

--- a/homework/学生成绩.xlsx
+++ b/homework/学生成绩.xlsx
@@ -787,7 +787,7 @@
   <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1430,9 +1430,12 @@
       <c r="H21">
         <v>10</v>
       </c>
+      <c r="I21">
+        <v>27</v>
+      </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="N21" t="s">
         <v>21</v>
